--- a/Oefeningen/excel2rdf - ingevuld Rik.xlsx
+++ b/Oefeningen/excel2rdf - ingevuld Rik.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\BIMLoket\training-linkeddata\Oefeningen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9C5B8D7-AA67-4AC6-B870-FB94692B2219}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C0DDB32-A77E-4AD2-A295-BBFB825E259A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17385" yWindow="32280" windowWidth="29040" windowHeight="17790" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="720" yWindow="720" windowWidth="28800" windowHeight="15560" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Schema" sheetId="3" r:id="rId1"/>
-    <sheet name="Data (2)" sheetId="4" r:id="rId2"/>
+    <sheet name="NEN2660" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
@@ -722,7 +722,7 @@
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Oefeningen/excel2rdf - ingevuld Rik.xlsx
+++ b/Oefeningen/excel2rdf - ingevuld Rik.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\BIMLoket\training-linkeddata\Oefeningen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C0DDB32-A77E-4AD2-A295-BBFB825E259A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B8C36DA-4C7D-4F65-B44B-952331CC665B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="720" windowWidth="28800" windowHeight="15560" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Schema" sheetId="3" r:id="rId1"/>
-    <sheet name="NEN2660" sheetId="4" r:id="rId2"/>
+    <sheet name="schema" sheetId="3" r:id="rId1"/>
+    <sheet name="nen2660" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
@@ -522,25 +522,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.1796875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="24.453125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="27.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.7265625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.36328125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="29.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="10.90625" style="1"/>
+    <col min="1" max="1" width="25.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="24.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="27.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="29.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="10.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
@@ -548,7 +548,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -560,7 +560,7 @@
       </c>
       <c r="D2" s="5"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -572,7 +572,7 @@
       </c>
       <c r="D3" s="5"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
@@ -584,27 +584,27 @@
       </c>
       <c r="D4" s="5"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="C5" s="4"/>
       <c r="D5" s="5"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D6" s="5"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>28</v>
       </c>
       <c r="D7" s="5"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D8" s="5"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>0</v>
       </c>
@@ -633,7 +633,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>22</v>
       </c>
@@ -656,7 +656,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>23</v>
       </c>
@@ -673,7 +673,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>24</v>
       </c>
@@ -690,7 +690,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>32</v>
       </c>
@@ -700,10 +700,10 @@
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D14" s="5"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
     </row>
@@ -721,25 +721,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE1830B4-2286-4688-90A4-0936B48131F3}">
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.1796875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="24.453125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="27.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.7265625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.36328125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="29.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="10.90625" style="1"/>
+    <col min="1" max="1" width="25.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="24.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="27.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="29.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="10.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
@@ -747,7 +747,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -759,7 +759,7 @@
       </c>
       <c r="D2" s="5"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -771,7 +771,7 @@
       </c>
       <c r="D3" s="5"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
@@ -783,27 +783,27 @@
       </c>
       <c r="D4" s="5"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="C5" s="4"/>
       <c r="D5" s="5"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D6" s="5"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>28</v>
       </c>
       <c r="D7" s="5"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D8" s="5"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>0</v>
       </c>
@@ -824,7 +824,7 @@
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>32</v>
       </c>
@@ -838,7 +838,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>32</v>
       </c>
@@ -850,7 +850,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>38</v>
       </c>
